--- a/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_(REST)_B10102_Getting_Customer_Details.xlsx
+++ b/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_(REST)_B10102_Getting_Customer_Details.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{638655BF-B082-4BF7-9EC2-DB70E118BE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71AB8E1-B0CB-4D65-B271-91F765084CA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" state="hidden" r:id="rId1"/>
@@ -30,101 +30,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{53F23246-DFB1-4C3F-802C-7DC1E043B8C1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」としてください。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{2CE9FF73-F474-4F85-8447-4E8A02F88096}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{83348883-5A0C-481D-88D0-B934EEDAB7FF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。他のセルも同様に
-configurationをstructureに置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
   <si>
@@ -303,10 +208,6 @@
     <t>Input data definition, item definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Although these items are mandatory items, it is specified by the path parameter, and will be a client search when not specified. Therefore, it cannot be realized.
-</t>
-  </si>
-  <si>
     <t>1-2-1</t>
   </si>
   <si>
@@ -353,15 +254,9 @@
     <t>2-3-1</t>
   </si>
   <si>
-    <t>Only mandatory items</t>
-  </si>
-  <si>
     <t>(a) Data layout
 (b) Data layout
 (c) Processing details, output data definition</t>
-  </si>
-  <si>
-    <t>Because all are mandatory items only</t>
   </si>
   <si>
     <t>2-4-1</t>
@@ -501,6 +396,16 @@
     <t>(a) Record structure
 (b) Record structure
 (c) Processing details, event details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although these items are required items, it is specified by the path parameter, and will be a client search when not specified. Therefore, it cannot be realized.
+</t>
+  </si>
+  <si>
+    <t>Only required items</t>
+  </si>
+  <si>
+    <t>Because all are required items only</t>
   </si>
 </sst>
 </file>
@@ -512,7 +417,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -607,21 +512,6 @@
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2577,9 +2467,9 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="6.58203125" style="1"/>
+    <col min="1" max="16384" width="6.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -2665,18 +2555,18 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="19">
+    <row r="32" spans="6:11" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="6:10" ht="19">
+    <row r="33" spans="6:10" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="19">
+    <row r="34" spans="6:10" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9"/>
@@ -3183,9 +3073,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="22"/>
+    <col min="1" max="16384" width="3.625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
@@ -4395,7 +4285,7 @@
       <c r="AH33" s="132"/>
       <c r="AI33" s="133"/>
     </row>
-    <row r="34" spans="1:35" ht="14">
+    <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
@@ -4587,7 +4477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4595,19 +4485,19 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="8.58203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.58203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="29" customWidth="1"/>
     <col min="6" max="6" width="6" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.58203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="27.625" style="29" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="28" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.58203125" style="28" customWidth="1"/>
-    <col min="12" max="12" width="20.58203125" style="28" customWidth="1"/>
-    <col min="13" max="16" width="8.58203125" style="28" customWidth="1"/>
+    <col min="10" max="11" width="30.625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="28" customWidth="1"/>
+    <col min="13" max="16" width="8.625" style="28" customWidth="1"/>
     <col min="17" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -4618,7 +4508,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4633,7 +4523,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>25</v>
@@ -4644,7 +4534,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J7" s="28" t="s">
         <v>27</v>
@@ -4653,7 +4543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:18" ht="12.75" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -4674,7 +4564,7 @@
       <c r="R8" s="30"/>
     </row>
     <row r="9" spans="1:18" ht="21.75" customHeight="1" thickTop="1"/>
-    <row r="10" spans="1:18" s="32" customFormat="1" ht="21">
+    <row r="10" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A10" s="119" t="s">
         <v>29</v>
       </c>
@@ -4730,18 +4620,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="32" customFormat="1" ht="69">
+    <row r="11" spans="1:18" s="32" customFormat="1" ht="72">
       <c r="A11" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>49</v>
@@ -4752,7 +4642,7 @@
         <v>50</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J11" s="40" t="s">
         <v>51</v>
@@ -4774,7 +4664,7 @@
       <c r="Q11" s="46"/>
       <c r="R11" s="44"/>
     </row>
-    <row r="12" spans="1:18" s="32" customFormat="1" ht="57.5">
+    <row r="12" spans="1:18" s="32" customFormat="1" ht="60">
       <c r="A12" s="33" t="s">
         <v>55</v>
       </c>
@@ -4782,7 +4672,7 @@
       <c r="C12" s="48"/>
       <c r="D12" s="49"/>
       <c r="E12" s="50" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -4793,7 +4683,7 @@
         <v>56</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="K12" s="55"/>
       <c r="L12" s="56"/>
@@ -4804,15 +4694,15 @@
       <c r="Q12" s="60"/>
       <c r="R12" s="58"/>
     </row>
-    <row r="13" spans="1:18" s="71" customFormat="1" ht="92">
+    <row r="13" spans="1:18" s="71" customFormat="1" ht="96">
       <c r="A13" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="49"/>
       <c r="E13" s="62" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="63"/>
@@ -4820,10 +4710,10 @@
         <v>50</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K13" s="65"/>
       <c r="L13" s="66"/>
@@ -4834,15 +4724,15 @@
       <c r="Q13" s="70"/>
       <c r="R13" s="68"/>
     </row>
-    <row r="14" spans="1:18" s="71" customFormat="1" ht="34.5">
+    <row r="14" spans="1:18" s="71" customFormat="1" ht="36">
       <c r="A14" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="72"/>
       <c r="C14" s="48"/>
       <c r="D14" s="49"/>
       <c r="E14" s="73" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F14" s="74"/>
       <c r="G14" s="74"/>
@@ -4850,10 +4740,10 @@
         <v>50</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K14" s="65"/>
       <c r="L14" s="69"/>
@@ -4866,13 +4756,13 @@
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
       <c r="D15" s="77"/>
       <c r="E15" s="78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="79"/>
       <c r="G15" s="79"/>
@@ -4880,10 +4770,10 @@
         <v>50</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K15" s="80"/>
       <c r="L15" s="81"/>
@@ -4894,31 +4784,31 @@
       <c r="Q15" s="82"/>
       <c r="R15" s="82"/>
     </row>
-    <row r="16" spans="1:18" s="88" customFormat="1" ht="57.5">
+    <row r="16" spans="1:18" s="88" customFormat="1" ht="48">
       <c r="A16" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F16" s="86"/>
       <c r="G16" s="86"/>
       <c r="H16" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="40" t="s">
+      <c r="K16" s="41" t="s">
         <v>66</v>
-      </c>
-      <c r="K16" s="41" t="s">
-        <v>67</v>
       </c>
       <c r="L16" s="87"/>
       <c r="M16" s="87"/>
@@ -4934,26 +4824,26 @@
       <c r="Q16" s="87"/>
       <c r="R16" s="87"/>
     </row>
-    <row r="17" spans="1:18" s="88" customFormat="1" ht="57.5">
+    <row r="17" spans="1:18" s="88" customFormat="1" ht="48">
       <c r="A17" s="61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="89"/>
       <c r="E17" s="90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="91"/>
       <c r="G17" s="91"/>
       <c r="H17" s="91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J17" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="55"/>
       <c r="L17" s="69"/>
@@ -4964,26 +4854,26 @@
       <c r="Q17" s="69"/>
       <c r="R17" s="69"/>
     </row>
-    <row r="18" spans="1:18" s="88" customFormat="1" ht="57.5">
+    <row r="18" spans="1:18" s="88" customFormat="1" ht="48">
       <c r="A18" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="72"/>
       <c r="C18" s="48"/>
       <c r="D18" s="89"/>
       <c r="E18" s="90" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F18" s="91"/>
       <c r="G18" s="91"/>
       <c r="H18" s="91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I18" s="91" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J18" s="54" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="K18" s="55"/>
       <c r="L18" s="69"/>
@@ -4994,26 +4884,26 @@
       <c r="Q18" s="69"/>
       <c r="R18" s="69"/>
     </row>
-    <row r="19" spans="1:18" s="88" customFormat="1" ht="57.5">
+    <row r="19" spans="1:18" s="88" customFormat="1" ht="48">
       <c r="A19" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="89"/>
       <c r="E19" s="90" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F19" s="91"/>
       <c r="G19" s="91"/>
       <c r="H19" s="91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="91" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K19" s="55"/>
       <c r="L19" s="69"/>
@@ -5024,15 +4914,15 @@
       <c r="Q19" s="69"/>
       <c r="R19" s="69"/>
     </row>
-    <row r="20" spans="1:18" s="88" customFormat="1" ht="34.5">
+    <row r="20" spans="1:18" s="88" customFormat="1" ht="36">
       <c r="A20" s="61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="92"/>
       <c r="C20" s="93"/>
       <c r="D20" s="94"/>
       <c r="E20" s="95" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F20" s="96"/>
       <c r="G20" s="96"/>
@@ -5043,7 +4933,7 @@
         <v>56</v>
       </c>
       <c r="J20" s="54" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K20" s="97"/>
       <c r="L20" s="98"/>
@@ -5054,28 +4944,28 @@
       <c r="Q20" s="98"/>
       <c r="R20" s="98"/>
     </row>
-    <row r="21" spans="1:18" ht="57.5">
+    <row r="21" spans="1:18" ht="48">
       <c r="A21" s="61" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" s="92"/>
       <c r="C21" s="99" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E21" s="100"/>
       <c r="F21" s="91"/>
       <c r="G21" s="91"/>
       <c r="H21" s="91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="91" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K21" s="69"/>
       <c r="L21" s="101"/>
@@ -5086,26 +4976,26 @@
       <c r="Q21" s="69"/>
       <c r="R21" s="102"/>
     </row>
-    <row r="22" spans="1:18" s="88" customFormat="1" ht="57.5">
+    <row r="22" spans="1:18" s="88" customFormat="1" ht="48">
       <c r="A22" s="61" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="100"/>
       <c r="F22" s="91"/>
       <c r="G22" s="91"/>
       <c r="H22" s="91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="91" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K22" s="98"/>
       <c r="L22" s="98"/>
@@ -5116,26 +5006,26 @@
       <c r="Q22" s="69"/>
       <c r="R22" s="102"/>
     </row>
-    <row r="23" spans="1:18" ht="57.5">
+    <row r="23" spans="1:18" ht="60">
       <c r="A23" s="61" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="103"/>
       <c r="D23" s="104" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="91"/>
       <c r="G23" s="91"/>
       <c r="H23" s="91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="105" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K23" s="106"/>
       <c r="L23" s="107"/>
@@ -5146,26 +5036,26 @@
       <c r="Q23" s="69"/>
       <c r="R23" s="102"/>
     </row>
-    <row r="24" spans="1:18" ht="57.5">
+    <row r="24" spans="1:18" ht="60">
       <c r="A24" s="61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="110"/>
       <c r="D24" s="111" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E24" s="100"/>
       <c r="F24" s="91"/>
       <c r="G24" s="91"/>
       <c r="H24" s="91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="105" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K24" s="106"/>
       <c r="L24" s="106"/>
@@ -5176,32 +5066,32 @@
       <c r="Q24" s="69"/>
       <c r="R24" s="102"/>
     </row>
-    <row r="25" spans="1:18" s="88" customFormat="1" ht="69">
+    <row r="25" spans="1:18" s="88" customFormat="1" ht="72">
       <c r="A25" s="61" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="112" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="113" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E25" s="114"/>
       <c r="F25" s="91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G25" s="91" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H25" s="91" t="s">
         <v>50</v>
       </c>
       <c r="I25" s="91" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K25" s="69"/>
       <c r="L25" s="69"/>
@@ -5214,14 +5104,14 @@
     </row>
     <row r="26" spans="1:18" s="88" customFormat="1" ht="78" customHeight="1">
       <c r="A26" s="61" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" s="115"/>
       <c r="C26" s="116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="85" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E26" s="117"/>
       <c r="F26" s="86"/>
@@ -5230,13 +5120,13 @@
         <v>50</v>
       </c>
       <c r="I26" s="86" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J26" s="87" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K26" s="87" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L26" s="87"/>
       <c r="M26" s="87"/>
@@ -5263,6 +5153,5 @@
     <ignoredError sqref="A11:A12 A13:A14" twoDigitTextYear="1"/>
     <ignoredError sqref="M13:M14 M16:M20 M25:M26 M22" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>